--- a/amazona book.xlsx
+++ b/amazona book.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
   <si>
     <t>design cart screen</t>
   </si>
@@ -474,6 +475,15 @@
   </si>
   <si>
     <t>in reducer, tried with object call instead of switch statement. It worked well. My concern is each and every time the obj gets created</t>
+  </si>
+  <si>
+    <t>mongodb user</t>
+  </si>
+  <si>
+    <t>raguadmin</t>
+  </si>
+  <si>
+    <t>nimda</t>
   </si>
 </sst>
 </file>
@@ -826,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1839,4 +1849,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>